--- a/Sheet Équipe.xlsx
+++ b/Sheet Équipe.xlsx
@@ -5820,20 +5820,20 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1966486481"/>
-        <c:axId val="257634991"/>
+        <c:axId val="1191372591"/>
+        <c:axId val="2038055210"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="1966486481"/>
+        <c:axId val="1191372591"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:crossAx val="257634991"/>
+        <c:crossAx val="2038055210"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="257634991"/>
+        <c:axId val="2038055210"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5845,7 +5845,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="1966486481"/>
+        <c:crossAx val="1191372591"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -5947,20 +5947,20 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="457967026"/>
-        <c:axId val="364607514"/>
+        <c:axId val="140500161"/>
+        <c:axId val="1881805650"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="457967026"/>
+        <c:axId val="140500161"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:crossAx val="364607514"/>
+        <c:crossAx val="1881805650"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="364607514"/>
+        <c:axId val="1881805650"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5972,7 +5972,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="457967026"/>
+        <c:crossAx val="140500161"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -6074,20 +6074,20 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="2107837130"/>
-        <c:axId val="1941920739"/>
+        <c:axId val="1223305600"/>
+        <c:axId val="1819660514"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="2107837130"/>
+        <c:axId val="1223305600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:crossAx val="1941920739"/>
+        <c:crossAx val="1819660514"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1941920739"/>
+        <c:axId val="1819660514"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6099,7 +6099,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="2107837130"/>
+        <c:crossAx val="1223305600"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -6201,20 +6201,20 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1900297192"/>
-        <c:axId val="1707991930"/>
+        <c:axId val="298445449"/>
+        <c:axId val="1039840881"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="1900297192"/>
+        <c:axId val="298445449"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:crossAx val="1707991930"/>
+        <c:crossAx val="1039840881"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1707991930"/>
+        <c:axId val="1039840881"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6226,7 +6226,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="1900297192"/>
+        <c:crossAx val="298445449"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -6328,20 +6328,20 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1354577517"/>
-        <c:axId val="1347733589"/>
+        <c:axId val="1405947311"/>
+        <c:axId val="1619461379"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="1354577517"/>
+        <c:axId val="1405947311"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:crossAx val="1347733589"/>
+        <c:crossAx val="1619461379"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1347733589"/>
+        <c:axId val="1619461379"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6353,7 +6353,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="1354577517"/>
+        <c:crossAx val="1405947311"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -6455,20 +6455,20 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="147501500"/>
-        <c:axId val="1075102281"/>
+        <c:axId val="275266354"/>
+        <c:axId val="2072141714"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="147501500"/>
+        <c:axId val="275266354"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:crossAx val="1075102281"/>
+        <c:crossAx val="2072141714"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1075102281"/>
+        <c:axId val="2072141714"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6480,7 +6480,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="147501500"/>
+        <c:crossAx val="275266354"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -6566,20 +6566,20 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1313356470"/>
-        <c:axId val="1452187597"/>
+        <c:axId val="50186150"/>
+        <c:axId val="279638445"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1313356470"/>
+        <c:axId val="50186150"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:crossAx val="1452187597"/>
+        <c:crossAx val="279638445"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1452187597"/>
+        <c:axId val="279638445"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6591,7 +6591,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="1313356470"/>
+        <c:crossAx val="50186150"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -6688,20 +6688,20 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="698552255"/>
-        <c:axId val="250428375"/>
+        <c:axId val="1690927870"/>
+        <c:axId val="87307471"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="698552255"/>
+        <c:axId val="1690927870"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:crossAx val="250428375"/>
+        <c:crossAx val="87307471"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="250428375"/>
+        <c:axId val="87307471"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6713,7 +6713,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="698552255"/>
+        <c:crossAx val="1690927870"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -6815,20 +6815,20 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1220689413"/>
-        <c:axId val="1041010466"/>
+        <c:axId val="1085379657"/>
+        <c:axId val="2065278854"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="1220689413"/>
+        <c:axId val="1085379657"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:crossAx val="1041010466"/>
+        <c:crossAx val="2065278854"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1041010466"/>
+        <c:axId val="2065278854"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6840,7 +6840,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="1220689413"/>
+        <c:crossAx val="1085379657"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -6942,20 +6942,20 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="601179275"/>
-        <c:axId val="1308579724"/>
+        <c:axId val="1374722969"/>
+        <c:axId val="1494489889"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="601179275"/>
+        <c:axId val="1374722969"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:crossAx val="1308579724"/>
+        <c:crossAx val="1494489889"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1308579724"/>
+        <c:axId val="1494489889"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6967,7 +6967,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="601179275"/>
+        <c:crossAx val="1374722969"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -7069,20 +7069,20 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="665667043"/>
-        <c:axId val="262002178"/>
+        <c:axId val="978435541"/>
+        <c:axId val="2131679688"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="665667043"/>
+        <c:axId val="978435541"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:crossAx val="262002178"/>
+        <c:crossAx val="2131679688"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="262002178"/>
+        <c:axId val="2131679688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7094,7 +7094,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="665667043"/>
+        <c:crossAx val="978435541"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -7196,20 +7196,20 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="640322659"/>
-        <c:axId val="1288486591"/>
+        <c:axId val="1084907321"/>
+        <c:axId val="751356071"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="640322659"/>
+        <c:axId val="1084907321"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:crossAx val="1288486591"/>
+        <c:crossAx val="751356071"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1288486591"/>
+        <c:axId val="751356071"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7221,7 +7221,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="640322659"/>
+        <c:crossAx val="1084907321"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -7323,20 +7323,20 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1521054249"/>
-        <c:axId val="2042708005"/>
+        <c:axId val="2126554925"/>
+        <c:axId val="1875783527"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="1521054249"/>
+        <c:axId val="2126554925"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:crossAx val="2042708005"/>
+        <c:crossAx val="1875783527"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2042708005"/>
+        <c:axId val="1875783527"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7348,7 +7348,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="1521054249"/>
+        <c:crossAx val="2126554925"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -7450,20 +7450,20 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="214095223"/>
-        <c:axId val="420660933"/>
+        <c:axId val="1881276750"/>
+        <c:axId val="241802793"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="214095223"/>
+        <c:axId val="1881276750"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:crossAx val="420660933"/>
+        <c:crossAx val="241802793"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="420660933"/>
+        <c:axId val="241802793"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7475,7 +7475,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="214095223"/>
+        <c:crossAx val="1881276750"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -7664,7 +7664,7 @@
     <xdr:ext cx="7753350" cy="590550"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -7705,7 +7705,7 @@
     <xdr:ext cx="14192250" cy="885825"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -39667,7 +39667,7 @@
     <row r="1" ht="30.0" customHeight="1">
       <c r="A1" s="12" t="str">
         <f>CONCATENATE(UPPER(TEXT(B4, "mmmm")), " - ", UPPER(TEXT(B31, "mmmm")))</f>
-        <v>MAI - JUIN</v>
+        <v>JUIN - JUILLET</v>
       </c>
       <c r="Y1" s="13"/>
     </row>
@@ -39743,10 +39743,10 @@
     <row r="4" ht="17.25" customHeight="1">
       <c r="A4" s="29">
         <f>WEEKNUM(B4) - 1</f>
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B4" s="30">
-        <v>44703.053877314815</v>
+        <v>44717.07295836805</v>
       </c>
       <c r="C4" s="31" t="s">
         <v>22</v>
@@ -39761,7 +39761,7 @@
       <c r="K4" s="33"/>
       <c r="L4" s="33"/>
       <c r="M4" s="34" t="str">
-        <f t="shared" ref="M4:M24" si="1">IF(COUNTIF(D4:H4, "*ok*")&gt;=5,"Let's Go?","")</f>
+        <f t="shared" ref="M4:M10" si="1">IF(COUNTIF(D4:H4, "*ok*")&gt;=5,"Let's Go?","")</f>
         <v/>
       </c>
       <c r="O4" s="14"/>
@@ -39770,7 +39770,7 @@
       <c r="A5" s="35"/>
       <c r="B5" s="36">
         <f t="shared" ref="B5:B31" si="2">B4+1</f>
-        <v>44704.05388</v>
+        <v>44718.07296</v>
       </c>
       <c r="C5" s="37" t="s">
         <v>23</v>
@@ -39805,7 +39805,7 @@
       <c r="A6" s="35"/>
       <c r="B6" s="44">
         <f t="shared" si="2"/>
-        <v>44705.05388</v>
+        <v>44719.07296</v>
       </c>
       <c r="C6" s="45" t="s">
         <v>25</v>
@@ -39830,7 +39830,7 @@
       <c r="A7" s="35"/>
       <c r="B7" s="51">
         <f t="shared" si="2"/>
-        <v>44706.05388</v>
+        <v>44720.07296</v>
       </c>
       <c r="C7" s="52" t="s">
         <v>26</v>
@@ -39863,7 +39863,7 @@
       <c r="A8" s="35"/>
       <c r="B8" s="51">
         <f t="shared" si="2"/>
-        <v>44707.05388</v>
+        <v>44721.07296</v>
       </c>
       <c r="C8" s="52" t="s">
         <v>27</v>
@@ -39925,7 +39925,7 @@
       <c r="A9" s="35"/>
       <c r="B9" s="51">
         <f t="shared" si="2"/>
-        <v>44708.05388</v>
+        <v>44722.07296</v>
       </c>
       <c r="C9" s="52" t="s">
         <v>29</v>
@@ -39960,7 +39960,7 @@
       <c r="A10" s="79"/>
       <c r="B10" s="80">
         <f t="shared" si="2"/>
-        <v>44709.05388</v>
+        <v>44723.07296</v>
       </c>
       <c r="C10" s="81" t="s">
         <v>31</v>
@@ -39992,11 +39992,11 @@
     <row r="11" ht="16.5" customHeight="1">
       <c r="A11" s="29">
         <f>A4+1</f>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B11" s="86">
         <f t="shared" si="2"/>
-        <v>44710.05388</v>
+        <v>44724.07296</v>
       </c>
       <c r="C11" s="87" t="s">
         <v>22</v>
@@ -40010,10 +40010,7 @@
       <c r="J11" s="89"/>
       <c r="K11" s="89"/>
       <c r="L11" s="89"/>
-      <c r="M11" s="90" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="M11" s="90"/>
       <c r="O11" s="56"/>
       <c r="P11" s="57"/>
       <c r="Q11" s="57"/>
@@ -40029,7 +40026,7 @@
       <c r="A12" s="35"/>
       <c r="B12" s="51">
         <f t="shared" si="2"/>
-        <v>44711.05388</v>
+        <v>44725.07296</v>
       </c>
       <c r="C12" s="52" t="s">
         <v>23</v>
@@ -40043,10 +40040,7 @@
       <c r="J12" s="54"/>
       <c r="K12" s="54"/>
       <c r="L12" s="54"/>
-      <c r="M12" s="55" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="M12" s="55"/>
       <c r="O12" s="91"/>
       <c r="P12" s="42"/>
       <c r="Q12" s="42"/>
@@ -40062,7 +40056,7 @@
       <c r="A13" s="35"/>
       <c r="B13" s="51">
         <f t="shared" si="2"/>
-        <v>44712.05388</v>
+        <v>44726.07296</v>
       </c>
       <c r="C13" s="52" t="s">
         <v>25</v>
@@ -40076,10 +40070,7 @@
       <c r="J13" s="54"/>
       <c r="K13" s="54"/>
       <c r="L13" s="54"/>
-      <c r="M13" s="55" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="M13" s="55"/>
       <c r="O13" s="56"/>
       <c r="P13" s="57"/>
       <c r="Q13" s="57"/>
@@ -40095,7 +40086,7 @@
       <c r="A14" s="35"/>
       <c r="B14" s="51">
         <f t="shared" si="2"/>
-        <v>44713.05388</v>
+        <v>44727.07296</v>
       </c>
       <c r="C14" s="52" t="s">
         <v>26</v>
@@ -40109,10 +40100,7 @@
       <c r="J14" s="54"/>
       <c r="K14" s="54"/>
       <c r="L14" s="54"/>
-      <c r="M14" s="55" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="M14" s="55"/>
       <c r="O14" s="92"/>
       <c r="P14" s="42"/>
       <c r="Q14" s="42"/>
@@ -40128,7 +40116,7 @@
       <c r="A15" s="35"/>
       <c r="B15" s="51">
         <f t="shared" si="2"/>
-        <v>44714.05388</v>
+        <v>44728.07296</v>
       </c>
       <c r="C15" s="52" t="s">
         <v>27</v>
@@ -40142,10 +40130,7 @@
       <c r="J15" s="54"/>
       <c r="K15" s="54"/>
       <c r="L15" s="54"/>
-      <c r="M15" s="55" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="M15" s="55"/>
       <c r="O15" s="56"/>
       <c r="P15" s="57"/>
       <c r="Q15" s="57"/>
@@ -40161,7 +40146,7 @@
       <c r="A16" s="35"/>
       <c r="B16" s="51">
         <f t="shared" si="2"/>
-        <v>44715.05388</v>
+        <v>44729.07296</v>
       </c>
       <c r="C16" s="52" t="s">
         <v>29</v>
@@ -40175,10 +40160,7 @@
       <c r="J16" s="54"/>
       <c r="K16" s="54"/>
       <c r="L16" s="54"/>
-      <c r="M16" s="55" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="M16" s="55"/>
       <c r="O16" s="93"/>
       <c r="P16" s="42"/>
       <c r="Q16" s="42"/>
@@ -40194,7 +40176,7 @@
       <c r="A17" s="79"/>
       <c r="B17" s="80">
         <f t="shared" si="2"/>
-        <v>44716.05388</v>
+        <v>44730.07296</v>
       </c>
       <c r="C17" s="81" t="s">
         <v>31</v>
@@ -40208,10 +40190,7 @@
       <c r="J17" s="83"/>
       <c r="K17" s="83"/>
       <c r="L17" s="83"/>
-      <c r="M17" s="84" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="M17" s="84"/>
       <c r="O17" s="56"/>
       <c r="P17" s="57"/>
       <c r="Q17" s="57"/>
@@ -40226,11 +40205,11 @@
     <row r="18" ht="17.25" customHeight="1">
       <c r="A18" s="29">
         <f>A11+1</f>
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B18" s="86">
         <f t="shared" si="2"/>
-        <v>44717.05388</v>
+        <v>44731.07296</v>
       </c>
       <c r="C18" s="87" t="s">
         <v>22</v>
@@ -40244,10 +40223,7 @@
       <c r="J18" s="89"/>
       <c r="K18" s="89"/>
       <c r="L18" s="89"/>
-      <c r="M18" s="90" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="M18" s="90"/>
       <c r="O18" s="94"/>
       <c r="P18" s="42"/>
       <c r="Q18" s="42"/>
@@ -40263,7 +40239,7 @@
       <c r="A19" s="35"/>
       <c r="B19" s="51">
         <f t="shared" si="2"/>
-        <v>44718.05388</v>
+        <v>44732.07296</v>
       </c>
       <c r="C19" s="52" t="s">
         <v>23</v>
@@ -40277,10 +40253,7 @@
       <c r="J19" s="54"/>
       <c r="K19" s="54"/>
       <c r="L19" s="54"/>
-      <c r="M19" s="55" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="M19" s="55"/>
       <c r="O19" s="56"/>
       <c r="P19" s="57"/>
       <c r="Q19" s="57"/>
@@ -40296,7 +40269,7 @@
       <c r="A20" s="35"/>
       <c r="B20" s="51">
         <f t="shared" si="2"/>
-        <v>44719.05388</v>
+        <v>44733.07296</v>
       </c>
       <c r="C20" s="52" t="s">
         <v>25</v>
@@ -40310,10 +40283,7 @@
       <c r="J20" s="54"/>
       <c r="K20" s="54"/>
       <c r="L20" s="54"/>
-      <c r="M20" s="55" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="M20" s="55"/>
       <c r="O20" s="94"/>
       <c r="P20" s="42"/>
       <c r="Q20" s="42"/>
@@ -40329,7 +40299,7 @@
       <c r="A21" s="35"/>
       <c r="B21" s="51">
         <f t="shared" si="2"/>
-        <v>44720.05388</v>
+        <v>44734.07296</v>
       </c>
       <c r="C21" s="52" t="s">
         <v>26</v>
@@ -40343,10 +40313,7 @@
       <c r="J21" s="54"/>
       <c r="K21" s="54"/>
       <c r="L21" s="54"/>
-      <c r="M21" s="55" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="M21" s="55"/>
       <c r="O21" s="56"/>
       <c r="P21" s="57"/>
       <c r="Q21" s="57"/>
@@ -40362,7 +40329,7 @@
       <c r="A22" s="35"/>
       <c r="B22" s="51">
         <f t="shared" si="2"/>
-        <v>44721.05388</v>
+        <v>44735.07296</v>
       </c>
       <c r="C22" s="52" t="s">
         <v>27</v>
@@ -40376,10 +40343,7 @@
       <c r="J22" s="54"/>
       <c r="K22" s="54"/>
       <c r="L22" s="54"/>
-      <c r="M22" s="55" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="M22" s="55"/>
       <c r="O22" s="95"/>
       <c r="P22" s="42"/>
       <c r="Q22" s="42"/>
@@ -40395,7 +40359,7 @@
       <c r="A23" s="35"/>
       <c r="B23" s="51">
         <f t="shared" si="2"/>
-        <v>44722.05388</v>
+        <v>44736.07296</v>
       </c>
       <c r="C23" s="52" t="s">
         <v>29</v>
@@ -40409,10 +40373,7 @@
       <c r="J23" s="54"/>
       <c r="K23" s="54"/>
       <c r="L23" s="54"/>
-      <c r="M23" s="55" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="M23" s="55"/>
       <c r="O23" s="56"/>
       <c r="P23" s="57"/>
       <c r="Q23" s="57"/>
@@ -40428,7 +40389,7 @@
       <c r="A24" s="79"/>
       <c r="B24" s="80">
         <f t="shared" si="2"/>
-        <v>44723.05388</v>
+        <v>44737.07296</v>
       </c>
       <c r="C24" s="81" t="s">
         <v>31</v>
@@ -40442,10 +40403,7 @@
       <c r="J24" s="83"/>
       <c r="K24" s="83"/>
       <c r="L24" s="83"/>
-      <c r="M24" s="84" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="M24" s="84"/>
       <c r="O24" s="96"/>
       <c r="P24" s="42"/>
       <c r="Q24" s="42"/>
@@ -40460,11 +40418,11 @@
     <row r="25" ht="17.25" customHeight="1">
       <c r="A25" s="29">
         <f>A18+1</f>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25" s="86">
         <f t="shared" si="2"/>
-        <v>44724.05388</v>
+        <v>44738.07296</v>
       </c>
       <c r="C25" s="87" t="s">
         <v>22</v>
@@ -40494,7 +40452,7 @@
       <c r="A26" s="35"/>
       <c r="B26" s="51">
         <f t="shared" si="2"/>
-        <v>44725.05388</v>
+        <v>44739.07296</v>
       </c>
       <c r="C26" s="52" t="s">
         <v>23</v>
@@ -40524,7 +40482,7 @@
       <c r="A27" s="35"/>
       <c r="B27" s="51">
         <f t="shared" si="2"/>
-        <v>44726.05388</v>
+        <v>44740.07296</v>
       </c>
       <c r="C27" s="52" t="s">
         <v>25</v>
@@ -40554,7 +40512,7 @@
       <c r="A28" s="35"/>
       <c r="B28" s="51">
         <f t="shared" si="2"/>
-        <v>44727.05388</v>
+        <v>44741.07296</v>
       </c>
       <c r="C28" s="52" t="s">
         <v>26</v>
@@ -40584,7 +40542,7 @@
       <c r="A29" s="35"/>
       <c r="B29" s="51">
         <f t="shared" si="2"/>
-        <v>44728.05388</v>
+        <v>44742.07296</v>
       </c>
       <c r="C29" s="52" t="s">
         <v>27</v>
@@ -40614,7 +40572,7 @@
       <c r="A30" s="35"/>
       <c r="B30" s="51">
         <f t="shared" si="2"/>
-        <v>44729.05388</v>
+        <v>44743.07296</v>
       </c>
       <c r="C30" s="52" t="s">
         <v>29</v>
@@ -40644,7 +40602,7 @@
       <c r="A31" s="79"/>
       <c r="B31" s="80">
         <f t="shared" si="2"/>
-        <v>44730.05388</v>
+        <v>44744.07296</v>
       </c>
       <c r="C31" s="81" t="s">
         <v>31</v>
